--- a/docs/RWSpeedTests_27Jan2017.xlsx
+++ b/docs/RWSpeedTests_27Jan2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="680" windowWidth="43760" windowHeight="25260" tabRatio="909" activeTab="5"/>
+    <workbookView xWindow="8340" yWindow="11040" windowWidth="29720" windowHeight="15260" tabRatio="645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HeapVsUnsafeDirect" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="109">
   <si>
     <t>Trials</t>
   </si>
@@ -355,6 +355,12 @@
   <si>
     <t>Test Memory Direct Non Volatile</t>
   </si>
+  <si>
+    <t>Mem H vs D</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
 </sst>
 </file>
 
@@ -434,8 +440,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="619">
+  <cellStyleXfs count="629">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1079,7 +1095,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="619">
+  <cellStyles count="629">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1389,6 +1405,11 @@
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1698,6 +1719,11 @@
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3937,11 +3963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123245736"/>
-        <c:axId val="-2123240088"/>
+        <c:axId val="-2128741512"/>
+        <c:axId val="-2128756920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123245736"/>
+        <c:axId val="-2128741512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -3981,12 +4007,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123240088"/>
+        <c:crossAx val="-2128756920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123240088"/>
+        <c:axId val="-2128756920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -4027,7 +4054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123245736"/>
+        <c:crossAx val="-2128741512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4518,11 +4545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095736136"/>
-        <c:axId val="-2095741512"/>
+        <c:axId val="-2127620792"/>
+        <c:axId val="-2127642744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095736136"/>
+        <c:axId val="-2127620792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095741512"/>
+        <c:crossAx val="-2127642744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4569,7 +4596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095741512"/>
+        <c:axId val="-2127642744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4610,7 +4637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095736136"/>
+        <c:crossAx val="-2127620792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5024,11 +5051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095785480"/>
-        <c:axId val="-2095803176"/>
+        <c:axId val="-2127672360"/>
+        <c:axId val="-2127698120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095785480"/>
+        <c:axId val="-2127672360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095803176"/>
+        <c:crossAx val="-2127698120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095803176"/>
+        <c:axId val="-2127698120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5116,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095785480"/>
+        <c:crossAx val="-2127672360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5548,11 +5575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125741064"/>
-        <c:axId val="-2129650840"/>
+        <c:axId val="-2127738696"/>
+        <c:axId val="-2127750792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125741064"/>
+        <c:axId val="-2127738696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129650840"/>
+        <c:crossAx val="-2127750792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5599,7 +5626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129650840"/>
+        <c:axId val="-2127750792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -5640,7 +5667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125741064"/>
+        <c:crossAx val="-2127738696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5656,6 +5683,907 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> O1, O2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>O1R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!$B$4:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!$G$4:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.447</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.607</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.606</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>O1W</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!$B$4:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!$I$4:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.423</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>O2R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!$B$32:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!$G$32:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.409</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.473</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.473</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>O2W</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!$B$32:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!$I$32:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.637</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2052661288"/>
+        <c:axId val="-2052655656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2052661288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="28.0"/>
+          <c:min val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Powers of 2 Memory Size (longs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052655656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2052655656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Nanoseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052661288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -7910,11 +8838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127231416"/>
-        <c:axId val="-2127193528"/>
+        <c:axId val="-2095216920"/>
+        <c:axId val="-2095211304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127231416"/>
+        <c:axId val="-2095216920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -7954,12 +8882,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127193528"/>
+        <c:crossAx val="-2095211304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127193528"/>
+        <c:axId val="-2095211304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -8000,7 +8929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127231416"/>
+        <c:crossAx val="-2095216920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10269,11 +11198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095412392"/>
-        <c:axId val="-2095101320"/>
+        <c:axId val="-2095387992"/>
+        <c:axId val="-2095382392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095412392"/>
+        <c:axId val="-2095387992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -10313,12 +11242,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095101320"/>
+        <c:crossAx val="-2095382392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095101320"/>
+        <c:axId val="-2095382392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10358,7 +11288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095412392"/>
+        <c:crossAx val="-2095387992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12627,11 +13557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064902792"/>
-        <c:axId val="-2127261800"/>
+        <c:axId val="-2128904936"/>
+        <c:axId val="-2128915784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064902792"/>
+        <c:axId val="-2128904936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -12671,12 +13601,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127261800"/>
+        <c:crossAx val="-2128915784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127261800"/>
+        <c:axId val="-2128915784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -12717,7 +13648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064902792"/>
+        <c:crossAx val="-2128904936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14986,11 +15917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095127064"/>
-        <c:axId val="-2095139752"/>
+        <c:axId val="-2094919240"/>
+        <c:axId val="-2094913592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095127064"/>
+        <c:axId val="-2094919240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -15030,12 +15961,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095139752"/>
+        <c:crossAx val="-2094913592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095139752"/>
+        <c:axId val="-2094913592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -15076,7 +16008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095127064"/>
+        <c:crossAx val="-2094919240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15142,7 +16074,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Memory Heap &amp; Direct</a:t>
+              <a:t> Memory Heap &amp; Direct, no volatiles</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -17345,11 +18277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109245832"/>
-        <c:axId val="-2108800136"/>
+        <c:axId val="-2094962824"/>
+        <c:axId val="-2094968456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109245832"/>
+        <c:axId val="-2094962824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -17389,12 +18321,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108800136"/>
+        <c:crossAx val="-2094968456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108800136"/>
+        <c:axId val="-2094968456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -17435,7 +18368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109245832"/>
+        <c:crossAx val="-2094962824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17501,7 +18434,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Memory Heap &amp; Direct</a:t>
+              <a:t> Memory Heap &amp; Direct Unsafe</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -19704,11 +20637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2093044248"/>
-        <c:axId val="-2091773256"/>
+        <c:axId val="-2095024664"/>
+        <c:axId val="-2095030296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2093044248"/>
+        <c:axId val="-2095024664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -19748,12 +20681,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091773256"/>
+        <c:crossAx val="-2095030296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091773256"/>
+        <c:axId val="-2095030296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -19794,7 +20728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093044248"/>
+        <c:crossAx val="-2095024664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20198,11 +21132,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095622328"/>
-        <c:axId val="-2095634504"/>
+        <c:axId val="-2128265576"/>
+        <c:axId val="-2127953704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095622328"/>
+        <c:axId val="-2128265576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20240,7 +21174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095634504"/>
+        <c:crossAx val="-2127953704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20248,7 +21182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095634504"/>
+        <c:axId val="-2127953704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -20288,7 +21222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095622328"/>
+        <c:crossAx val="-2128265576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -20718,11 +21652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095686168"/>
-        <c:axId val="-2095694632"/>
+        <c:axId val="-2127582728"/>
+        <c:axId val="-2127589288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095686168"/>
+        <c:axId val="-2127582728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20760,7 +21694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095694632"/>
+        <c:crossAx val="-2127589288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20768,7 +21702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095694632"/>
+        <c:axId val="-2127589288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -20808,7 +21742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095686168"/>
+        <c:crossAx val="-2127582728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -21030,13 +21964,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -21256,6 +22190,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21588,8 +22559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:R89"/>
+    <sheetView topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -26509,7 +27480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I40" workbookViewId="0">
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
@@ -31354,7 +32325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S6" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -36197,7 +37168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:R89"/>
     </sheetView>
   </sheetViews>
@@ -41427,8 +42398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:R90"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90:R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -45762,6 +46733,14 @@
     <row r="90" spans="2:18">
       <c r="K90" t="s">
         <v>104</v>
+      </c>
+      <c r="P90">
+        <f>MIN(P5:P89)</f>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R90">
+        <f>MIN(R5:R89)</f>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="99" spans="2:20">
@@ -46662,14 +47641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:R90"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -50995,8 +51974,44 @@
       </c>
     </row>
     <row r="90" spans="2:18">
+      <c r="E90" s="1">
+        <f>SUM(E5:E89)</f>
+        <v>333224003767</v>
+      </c>
       <c r="K90" t="s">
         <v>103</v>
+      </c>
+      <c r="P90">
+        <f>MIN(P5:P89)</f>
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="R90">
+        <f>MIN(R5:R89)</f>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="O91" t="s">
+        <v>107</v>
+      </c>
+      <c r="P91">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R91">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="O92" t="s">
+        <v>108</v>
+      </c>
+      <c r="P92">
+        <f>P91-P90</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="R92">
+        <f>R91-R90</f>
+        <v>0.42199999999999993</v>
       </c>
     </row>
     <row r="99" spans="2:20">
@@ -54360,3087 +55375,3091 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R166"/>
+  <dimension ref="B1:R165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9780" topLeftCell="A138"/>
-      <selection activeCell="M87" sqref="M87:M92"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161:I161"/>
+      <pane ySplit="14820" topLeftCell="A47"/>
+      <selection activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:11">
+    <row r="1" spans="2:18">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>33554432</v>
+      </c>
+      <c r="E4">
+        <v>1073741824</v>
+      </c>
+      <c r="F4">
+        <v>22.988</v>
+      </c>
+      <c r="G4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H4">
+        <v>23.202999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <f>G10</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O4">
+        <f>G13</f>
+        <v>0.437</v>
+      </c>
+      <c r="P4">
+        <f>G16</f>
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="Q4">
+        <f>G19</f>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="R4">
+        <f>G22</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>16777216</v>
+      </c>
+      <c r="E5">
+        <v>1073741824</v>
+      </c>
+      <c r="F5">
+        <v>37.143999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>33.628</v>
+      </c>
+      <c r="I5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5">
+        <f>I10</f>
+        <v>0.31</v>
+      </c>
+      <c r="O5">
+        <f>I13</f>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="P5">
+        <f>I16</f>
+        <v>0.372</v>
+      </c>
+      <c r="Q5">
+        <f>I19</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="R5">
+        <f>I22</f>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>8388608</v>
+      </c>
+      <c r="E6">
+        <v>1073741824</v>
+      </c>
+      <c r="F6">
+        <v>64.227000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.502</v>
+      </c>
+      <c r="H6">
+        <v>52.755000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6">
+        <f>G38</f>
+        <v>0.104</v>
+      </c>
+      <c r="O6">
+        <f>G41</f>
+        <v>0.191</v>
+      </c>
+      <c r="P6">
+        <f>G44</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q6">
+        <f>G47</f>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="R6">
+        <f>G50</f>
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="D7">
+        <v>4194304</v>
+      </c>
+      <c r="E7">
+        <v>1073741824</v>
+      </c>
+      <c r="F7">
+        <v>116.059</v>
+      </c>
+      <c r="G7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H7">
+        <v>92.349000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <f>I38</f>
+        <v>0.23</v>
+      </c>
+      <c r="O7">
+        <f>I41</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="P7">
+        <f>I44</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q7">
+        <f>I47</f>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="R7">
+        <f>I50</f>
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>2097152</v>
+      </c>
+      <c r="E8">
+        <v>1073741824</v>
+      </c>
+      <c r="F8">
+        <v>226.60499999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.443</v>
+      </c>
+      <c r="H8">
+        <v>171.54400000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <f>G66</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O8">
+        <f>G69</f>
+        <v>0.187</v>
+      </c>
+      <c r="P8">
+        <f>G72</f>
+        <v>0.248</v>
+      </c>
+      <c r="Q8">
+        <f>G75</f>
+        <v>0.41</v>
+      </c>
+      <c r="R8">
+        <f>G78</f>
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1024</v>
+      </c>
+      <c r="D9">
+        <v>1048576</v>
+      </c>
+      <c r="E9">
+        <v>1073741824</v>
+      </c>
+      <c r="F9">
+        <v>437.875</v>
+      </c>
+      <c r="G9">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H9">
+        <v>323.91800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.316</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9">
+        <f>I66</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O9">
+        <f>I69</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="P9">
+        <f>I72</f>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="Q9">
+        <f>I75</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="R9">
+        <f>I78</f>
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="5">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2048</v>
+      </c>
+      <c r="D10" s="5">
+        <v>524288</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F10" s="5">
+        <v>855.78499999999997</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H10" s="5">
+        <v>634.15300000000002</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4096</v>
+      </c>
+      <c r="D11">
+        <v>262144</v>
+      </c>
+      <c r="E11">
+        <v>1073741824</v>
+      </c>
+      <c r="F11">
+        <v>1711.1510000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H11">
+        <v>1242.8510000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>8192</v>
+      </c>
+      <c r="D12">
+        <v>131072</v>
+      </c>
+      <c r="E12">
+        <v>1073741824</v>
+      </c>
+      <c r="F12">
+        <v>3536.5450000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.432</v>
+      </c>
+      <c r="H12">
+        <v>2805.3209999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="5">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>16384</v>
+      </c>
+      <c r="D13" s="5">
+        <v>65536</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7157.0429999999997</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.437</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5553.8940000000002</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>32768</v>
+      </c>
+      <c r="D14">
+        <v>32768</v>
+      </c>
+      <c r="E14">
+        <v>1073741824</v>
+      </c>
+      <c r="F14">
+        <v>14224.457</v>
+      </c>
+      <c r="G14">
+        <v>0.434</v>
+      </c>
+      <c r="H14">
+        <v>11168.457</v>
+      </c>
+      <c r="I14">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>65536</v>
+      </c>
+      <c r="D15">
+        <v>16384</v>
+      </c>
+      <c r="E15">
+        <v>1073741824</v>
+      </c>
+      <c r="F15">
+        <v>29285.95</v>
+      </c>
+      <c r="G15">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H15">
+        <v>24319.58</v>
+      </c>
+      <c r="I15">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="5">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>131072</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8192</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F16" s="5">
+        <v>58482.665999999997</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>48795.044000000002</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>262144</v>
+      </c>
+      <c r="D17">
+        <v>4096</v>
+      </c>
+      <c r="E17">
+        <v>1073741824</v>
+      </c>
+      <c r="F17">
+        <v>116859.863</v>
+      </c>
+      <c r="G17">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H17">
+        <v>100057.617</v>
+      </c>
+      <c r="I17">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>524288</v>
+      </c>
+      <c r="D18">
+        <v>2048</v>
+      </c>
+      <c r="E18">
+        <v>1073741824</v>
+      </c>
+      <c r="F18">
+        <v>260407.715</v>
+      </c>
+      <c r="G18">
+        <v>0.497</v>
+      </c>
+      <c r="H18">
+        <v>221765.13699999999</v>
+      </c>
+      <c r="I18">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1048576</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F19" s="5">
+        <v>632340.81999999995</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>760004.88300000003</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2097152</v>
+      </c>
+      <c r="D20">
+        <v>512</v>
+      </c>
+      <c r="E20">
+        <v>1073741824</v>
+      </c>
+      <c r="F20">
+        <v>1272179.6880000001</v>
+      </c>
+      <c r="G20">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H20">
+        <v>1844480.469</v>
+      </c>
+      <c r="I20">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>4194304</v>
+      </c>
+      <c r="D21">
+        <v>256</v>
+      </c>
+      <c r="E21">
+        <v>1073741824</v>
+      </c>
+      <c r="F21">
+        <v>2562691.406</v>
+      </c>
+      <c r="G21">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="H21">
+        <v>3682414.0619999999</v>
+      </c>
+      <c r="I21">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8388608</v>
+      </c>
+      <c r="D22" s="5">
+        <v>128</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5199929.6880000001</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7825093.75</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>16777216</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>1073741824</v>
+      </c>
+      <c r="F23">
+        <v>10166484.375</v>
+      </c>
+      <c r="G23">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="H23">
+        <v>15346937.5</v>
+      </c>
+      <c r="I23">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>33554432</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1073741824</v>
+      </c>
+      <c r="F24">
+        <v>20185812.5</v>
+      </c>
+      <c r="G24">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H24">
+        <v>31724062.5</v>
+      </c>
+      <c r="I24">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>67108864</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>1073741824</v>
+      </c>
+      <c r="F25">
+        <v>40219375</v>
+      </c>
+      <c r="G25">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H25">
+        <v>66789437.5</v>
+      </c>
+      <c r="I25">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>134217728</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1073741824</v>
+      </c>
+      <c r="F26">
+        <v>80590875</v>
+      </c>
+      <c r="G26">
+        <v>0.6</v>
+      </c>
+      <c r="H26">
+        <v>152099250</v>
+      </c>
+      <c r="I26">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>268435456</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1073741824</v>
+      </c>
+      <c r="F27">
+        <v>161100500</v>
+      </c>
+      <c r="G27">
+        <v>0.6</v>
+      </c>
+      <c r="H27">
+        <v>374838000</v>
+      </c>
+      <c r="I27">
+        <v>1.3959999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>33554432</v>
+      </c>
+      <c r="E32">
+        <v>1073741824</v>
+      </c>
+      <c r="F32">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.18</v>
+      </c>
+      <c r="H32">
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>16777216</v>
+      </c>
+      <c r="E33">
+        <v>1073741824</v>
+      </c>
+      <c r="F33">
+        <v>10.569000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H33">
+        <v>16.321000000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>128</v>
+      </c>
+      <c r="D34">
+        <v>8388608</v>
+      </c>
+      <c r="E34">
+        <v>1073741824</v>
+      </c>
+      <c r="F34">
+        <v>17.414999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H34">
+        <v>30.503</v>
+      </c>
+      <c r="I34">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>256</v>
+      </c>
+      <c r="D35">
+        <v>4194304</v>
+      </c>
+      <c r="E35">
+        <v>1073741824</v>
+      </c>
+      <c r="F35">
+        <v>29.768999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H35">
+        <v>64.716999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>512</v>
+      </c>
+      <c r="D36">
+        <v>2097152</v>
+      </c>
+      <c r="E36">
+        <v>1073741824</v>
+      </c>
+      <c r="F36">
+        <v>54.786999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.107</v>
+      </c>
+      <c r="H36">
+        <v>123.37</v>
+      </c>
+      <c r="I36">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1024</v>
+      </c>
+      <c r="D37">
+        <v>1048576</v>
+      </c>
+      <c r="E37">
+        <v>1073741824</v>
+      </c>
+      <c r="F37">
+        <v>104.366</v>
+      </c>
+      <c r="G37">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H37">
+        <v>237.63900000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="5">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2048</v>
+      </c>
+      <c r="D38" s="5">
+        <v>524288</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F38" s="5">
+        <v>212.654</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="H38" s="5">
+        <v>470.88600000000002</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>4096</v>
+      </c>
+      <c r="D39">
+        <v>262144</v>
+      </c>
+      <c r="E39">
+        <v>1073741824</v>
+      </c>
+      <c r="F39">
+        <v>429.03899999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.105</v>
+      </c>
+      <c r="H39">
+        <v>950.05799999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>8192</v>
+      </c>
+      <c r="D40">
+        <v>131072</v>
+      </c>
+      <c r="E40">
+        <v>1073741824</v>
+      </c>
+      <c r="F40">
+        <v>1545.2270000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.189</v>
+      </c>
+      <c r="H40">
+        <v>1851.395</v>
+      </c>
+      <c r="I40">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="5">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5">
+        <v>16384</v>
+      </c>
+      <c r="D41" s="5">
+        <v>65536</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3136.6579999999999</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.191</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3867.1570000000002</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>32768</v>
+      </c>
+      <c r="D42">
+        <v>32768</v>
+      </c>
+      <c r="E42">
+        <v>1073741824</v>
+      </c>
+      <c r="F42">
+        <v>6155.3040000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.188</v>
+      </c>
+      <c r="H42">
+        <v>7959.7169999999996</v>
+      </c>
+      <c r="I42">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>65536</v>
+      </c>
+      <c r="D43">
+        <v>16384</v>
+      </c>
+      <c r="E43">
+        <v>1073741824</v>
+      </c>
+      <c r="F43">
+        <v>16493.591</v>
+      </c>
+      <c r="G43">
+        <v>0.252</v>
+      </c>
+      <c r="H43">
+        <v>21668.456999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="5">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <v>131072</v>
+      </c>
+      <c r="D44" s="5">
+        <v>8192</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F44" s="5">
+        <v>32710.327000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="5">
+        <v>43621.826000000001</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>262144</v>
+      </c>
+      <c r="D45">
+        <v>4096</v>
+      </c>
+      <c r="E45">
+        <v>1073741824</v>
+      </c>
+      <c r="F45">
+        <v>65725.097999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.251</v>
+      </c>
+      <c r="H45">
+        <v>86925.536999999997</v>
+      </c>
+      <c r="I45">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>524288</v>
+      </c>
+      <c r="D46">
+        <v>2048</v>
+      </c>
+      <c r="E46">
+        <v>1073741824</v>
+      </c>
+      <c r="F46">
+        <v>154513.67199999999</v>
+      </c>
+      <c r="G46">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H46">
+        <v>201922.85200000001</v>
+      </c>
+      <c r="I46">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="5">
+        <v>20</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1048576</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F47" s="5">
+        <v>429012.69500000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H47" s="5">
+        <v>668174.80500000005</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>2097152</v>
+      </c>
+      <c r="D48">
+        <v>512</v>
+      </c>
+      <c r="E48">
+        <v>1073741824</v>
+      </c>
+      <c r="F48">
+        <v>951107.42200000002</v>
+      </c>
+      <c r="G48">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H48">
+        <v>1783164.0619999999</v>
+      </c>
+      <c r="I48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>4194304</v>
+      </c>
+      <c r="D49">
+        <v>256</v>
+      </c>
+      <c r="E49">
+        <v>1073741824</v>
+      </c>
+      <c r="F49">
+        <v>1998523.4380000001</v>
+      </c>
+      <c r="G49">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H49">
+        <v>3690273.4380000001</v>
+      </c>
+      <c r="I49">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="5">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5">
+        <v>8388608</v>
+      </c>
+      <c r="D50" s="5">
+        <v>128</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4020695.3119999999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H50" s="5">
+        <v>7486093.75</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>16777216</v>
+      </c>
+      <c r="D51">
+        <v>64</v>
+      </c>
+      <c r="E51">
+        <v>1073741824</v>
+      </c>
+      <c r="F51">
+        <v>7938687.5</v>
+      </c>
+      <c r="G51">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H51">
+        <v>15057156.25</v>
+      </c>
+      <c r="I51">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>33554432</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52">
+        <v>1073741824</v>
+      </c>
+      <c r="F52">
+        <v>15863437.5</v>
+      </c>
+      <c r="G52">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H52">
+        <v>31004468.75</v>
+      </c>
+      <c r="I52">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>67108864</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>1073741824</v>
+      </c>
+      <c r="F53">
+        <v>32154875</v>
+      </c>
+      <c r="G53">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H53">
+        <v>66507312.5</v>
+      </c>
+      <c r="I53">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>134217728</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>1073741824</v>
+      </c>
+      <c r="F54">
+        <v>63854250</v>
+      </c>
+      <c r="G54">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H54">
+        <v>150512750</v>
+      </c>
+      <c r="I54">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>268435456</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>1073741824</v>
+      </c>
+      <c r="F55">
+        <v>125904500</v>
+      </c>
+      <c r="G55">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H55">
+        <v>367864000</v>
+      </c>
+      <c r="I55">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>33554432</v>
+      </c>
+      <c r="E60">
+        <v>1073741824</v>
+      </c>
+      <c r="F60">
+        <v>6.4850000000000003</v>
+      </c>
+      <c r="G60">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H60">
+        <v>8.7140000000000004</v>
+      </c>
+      <c r="I60">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>16777216</v>
+      </c>
+      <c r="E61">
+        <v>1073741824</v>
+      </c>
+      <c r="F61">
+        <v>9.1829999999999998</v>
+      </c>
+      <c r="G61">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H61">
+        <v>16.193999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>128</v>
+      </c>
+      <c r="D62">
+        <v>8388608</v>
+      </c>
+      <c r="E62">
+        <v>1073741824</v>
+      </c>
+      <c r="F62">
+        <v>15.276</v>
+      </c>
+      <c r="G62">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H62">
+        <v>30.242999999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>256</v>
+      </c>
+      <c r="D63">
+        <v>4194304</v>
+      </c>
+      <c r="E63">
+        <v>1073741824</v>
+      </c>
+      <c r="F63">
+        <v>27.81</v>
+      </c>
+      <c r="G63">
+        <v>0.109</v>
+      </c>
+      <c r="H63">
+        <v>62.386000000000003</v>
+      </c>
+      <c r="I63">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>512</v>
+      </c>
+      <c r="D64">
+        <v>2097152</v>
+      </c>
+      <c r="E64">
+        <v>1073741824</v>
+      </c>
+      <c r="F64">
+        <v>51.106999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.1</v>
+      </c>
+      <c r="H64">
+        <v>124.22</v>
+      </c>
+      <c r="I64">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>1024</v>
+      </c>
+      <c r="D65">
+        <v>1048576</v>
+      </c>
+      <c r="E65">
+        <v>1073741824</v>
+      </c>
+      <c r="F65">
+        <v>106.947</v>
+      </c>
+      <c r="G65">
+        <v>0.104</v>
+      </c>
+      <c r="H65">
+        <v>240.333</v>
+      </c>
+      <c r="I65">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="5">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2048</v>
+      </c>
+      <c r="D66" s="5">
+        <v>524288</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F66" s="5">
+        <v>201.26</v>
+      </c>
+      <c r="G66" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>474.89</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>4096</v>
+      </c>
+      <c r="D67">
+        <v>262144</v>
+      </c>
+      <c r="E67">
+        <v>1073741824</v>
+      </c>
+      <c r="F67">
+        <v>413.23500000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H67">
+        <v>909.24099999999999</v>
+      </c>
+      <c r="I67">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>8192</v>
+      </c>
+      <c r="D68">
+        <v>131072</v>
+      </c>
+      <c r="E68">
+        <v>1073741824</v>
+      </c>
+      <c r="F68">
+        <v>1509.6890000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.184</v>
+      </c>
+      <c r="H68">
+        <v>1899.9559999999999</v>
+      </c>
+      <c r="I68">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="5">
+        <v>14</v>
+      </c>
+      <c r="C69" s="5">
+        <v>16384</v>
+      </c>
+      <c r="D69" s="5">
+        <v>65536</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3062.9119999999998</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="H69" s="5">
+        <v>3881.8969999999999</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>32768</v>
+      </c>
+      <c r="D70">
+        <v>32768</v>
+      </c>
+      <c r="E70">
+        <v>1073741824</v>
+      </c>
+      <c r="F70">
+        <v>6169.4639999999999</v>
+      </c>
+      <c r="G70">
+        <v>0.188</v>
+      </c>
+      <c r="H70">
+        <v>7935.6379999999999</v>
+      </c>
+      <c r="I70">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>65536</v>
+      </c>
+      <c r="D71">
+        <v>16384</v>
+      </c>
+      <c r="E71">
+        <v>1073741824</v>
+      </c>
+      <c r="F71">
+        <v>16413.269</v>
+      </c>
+      <c r="G71">
+        <v>0.25</v>
+      </c>
+      <c r="H71">
+        <v>21504.760999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="5">
+        <v>17</v>
+      </c>
+      <c r="C72" s="5">
+        <v>131072</v>
+      </c>
+      <c r="D72" s="5">
+        <v>8192</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F72" s="5">
+        <v>32495.361000000001</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.248</v>
+      </c>
+      <c r="H72" s="5">
+        <v>43717.163</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>262144</v>
+      </c>
+      <c r="D73">
+        <v>4096</v>
+      </c>
+      <c r="E73">
+        <v>1073741824</v>
+      </c>
+      <c r="F73">
+        <v>65736.084000000003</v>
+      </c>
+      <c r="G73">
+        <v>0.251</v>
+      </c>
+      <c r="H73">
+        <v>87460.692999999999</v>
+      </c>
+      <c r="I73">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>524288</v>
+      </c>
+      <c r="D74">
+        <v>2048</v>
+      </c>
+      <c r="E74">
+        <v>1073741824</v>
+      </c>
+      <c r="F74">
+        <v>160188.965</v>
+      </c>
+      <c r="G74">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H74">
+        <v>193105.46900000001</v>
+      </c>
+      <c r="I74">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="5">
+        <v>20</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1048576</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F75" s="5">
+        <v>430384.766</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="H75" s="5">
+        <v>673153.32</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>2097152</v>
+      </c>
+      <c r="D76">
+        <v>512</v>
+      </c>
+      <c r="E76">
+        <v>1073741824</v>
+      </c>
+      <c r="F76">
+        <v>940800.78099999996</v>
+      </c>
+      <c r="G76">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H76">
+        <v>1738085.9380000001</v>
+      </c>
+      <c r="I76">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77">
+        <v>22</v>
+      </c>
+      <c r="C77">
+        <v>4194304</v>
+      </c>
+      <c r="D77">
+        <v>256</v>
+      </c>
+      <c r="E77">
+        <v>1073741824</v>
+      </c>
+      <c r="F77">
+        <v>1988046.875</v>
+      </c>
+      <c r="G77">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="H77">
+        <v>3681203.125</v>
+      </c>
+      <c r="I77">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="5">
+        <v>23</v>
+      </c>
+      <c r="C78" s="5">
+        <v>8388608</v>
+      </c>
+      <c r="D78" s="5">
+        <v>128</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1073741824</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3964109.375</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H78" s="5">
+        <v>7520882.8119999999</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79">
+        <v>16777216</v>
+      </c>
+      <c r="D79">
+        <v>64</v>
+      </c>
+      <c r="E79">
+        <v>1073741824</v>
+      </c>
+      <c r="F79">
+        <v>7989281.25</v>
+      </c>
+      <c r="G79">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H79">
+        <v>15051703.125</v>
+      </c>
+      <c r="I79">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>33554432</v>
+      </c>
+      <c r="D80">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>1073741824</v>
+      </c>
+      <c r="F80">
+        <v>15896468.75</v>
+      </c>
+      <c r="G80">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="H80">
+        <v>31430812.5</v>
+      </c>
+      <c r="I80">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <v>67108864</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>1073741824</v>
+      </c>
+      <c r="F81">
+        <v>31955875</v>
+      </c>
+      <c r="G81">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H81">
+        <v>66651500</v>
+      </c>
+      <c r="I81">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>134217728</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1073741824</v>
+      </c>
+      <c r="F82">
+        <v>63767875</v>
+      </c>
+      <c r="G82">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H82">
+        <v>150625500</v>
+      </c>
+      <c r="I82">
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>268435456</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1073741824</v>
+      </c>
+      <c r="F83">
+        <v>126837000</v>
+      </c>
+      <c r="G83">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H83">
+        <v>370332000</v>
+      </c>
+      <c r="I83">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C87" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D87" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G87" s="4">
         <v>11</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H87" s="4">
         <v>14</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I87" s="4">
         <v>17</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J87" s="4">
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K87" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
         <v>60</v>
       </c>
-      <c r="C4">
+      <c r="C88">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D88">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F88" t="s">
         <v>60</v>
       </c>
-      <c r="G4">
-        <f>D10</f>
+      <c r="G88">
+        <f>D94</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="H4">
-        <f>D13</f>
+      <c r="H88">
+        <f>D97</f>
         <v>0.42099999999999999</v>
       </c>
-      <c r="I4">
-        <f>D16</f>
+      <c r="I88">
+        <f>D100</f>
         <v>0.41899999999999998</v>
       </c>
-      <c r="J4">
-        <f>D19</f>
+      <c r="J88">
+        <f>D103</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="K4">
-        <f>D22</f>
+      <c r="K88">
+        <f>D106</f>
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
+    <row r="89" spans="2:11">
+      <c r="B89" t="s">
         <v>60</v>
       </c>
-      <c r="C5">
+      <c r="C89">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D89">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F89" t="s">
         <v>61</v>
       </c>
-      <c r="G5">
-        <f>D37</f>
+      <c r="G89">
+        <f>D121</f>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H5">
-        <f>D40</f>
+      <c r="H89">
+        <f>D124</f>
         <v>0.18</v>
       </c>
-      <c r="I5">
-        <f>D43</f>
+      <c r="I89">
+        <f>D127</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="J5">
-        <f>D46</f>
+      <c r="J89">
+        <f>D130</f>
         <v>0.36699999999999999</v>
       </c>
-      <c r="K5">
-        <f>D49</f>
+      <c r="K89">
+        <f>D133</f>
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" t="s">
+    <row r="90" spans="2:11">
+      <c r="B90" t="s">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C90">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D90">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F90" t="s">
         <v>62</v>
       </c>
-      <c r="G6">
-        <f>D64</f>
+      <c r="G90">
+        <f>D148</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H6">
-        <f>D67</f>
+      <c r="H90">
+        <f>D151</f>
         <v>0.189</v>
       </c>
-      <c r="I6">
-        <f>D70</f>
+      <c r="I90">
+        <f>D154</f>
         <v>0.24</v>
       </c>
-      <c r="J6">
-        <f>D73</f>
+      <c r="J90">
+        <f>D157</f>
         <v>0.36699999999999999</v>
       </c>
-      <c r="K6">
-        <f>D76</f>
+      <c r="K90">
+        <f>D160</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C91">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D91">
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C92">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D92">
         <v>0.441</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
         <v>60</v>
       </c>
-      <c r="C9">
+      <c r="C93">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D93">
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
+    <row r="94" spans="2:11">
+      <c r="B94" t="s">
         <v>60</v>
       </c>
-      <c r="C10">
+      <c r="C94">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D94">
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
+    <row r="95" spans="2:11">
+      <c r="B95" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
+      <c r="C95">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D95">
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
+      <c r="C96">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="D96">
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
         <v>60</v>
       </c>
-      <c r="C13">
+      <c r="C97">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D97">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" t="s">
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
         <v>60</v>
       </c>
-      <c r="C14">
+      <c r="C98">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D98">
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" t="s">
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
         <v>60</v>
       </c>
-      <c r="C15">
+      <c r="C99">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D99">
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
         <v>60</v>
       </c>
-      <c r="C16">
+      <c r="C100">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D100">
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
         <v>60</v>
       </c>
-      <c r="C17">
+      <c r="C101">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D101">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
         <v>60</v>
       </c>
-      <c r="C18">
+      <c r="C102">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="D102">
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
         <v>60</v>
       </c>
-      <c r="C19">
+      <c r="C103">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D103">
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
         <v>60</v>
       </c>
-      <c r="C20">
+      <c r="C104">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="D104">
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
         <v>60</v>
       </c>
-      <c r="C21">
+      <c r="C105">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D105">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
         <v>60</v>
       </c>
-      <c r="C22">
+      <c r="C106">
         <v>23</v>
       </c>
-      <c r="D22">
+      <c r="D106">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
         <v>60</v>
       </c>
-      <c r="C23">
+      <c r="C107">
         <v>24</v>
       </c>
-      <c r="D23">
+      <c r="D107">
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
         <v>60</v>
       </c>
-      <c r="C24">
+      <c r="C108">
         <v>25</v>
       </c>
-      <c r="D24">
+      <c r="D108">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
         <v>60</v>
       </c>
-      <c r="C25">
+      <c r="C109">
         <v>26</v>
       </c>
-      <c r="D25">
+      <c r="D109">
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C110">
         <v>27</v>
       </c>
-      <c r="D26">
+      <c r="D110">
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
         <v>60</v>
       </c>
-      <c r="C27">
+      <c r="C111">
         <v>28</v>
       </c>
-      <c r="D27">
+      <c r="D111">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
+      <c r="C115">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D115">
         <v>0.192</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
         <v>61</v>
       </c>
-      <c r="C32">
+      <c r="C116">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D116">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
         <v>61</v>
       </c>
-      <c r="C33">
+      <c r="C117">
         <v>7</v>
       </c>
-      <c r="D33">
+      <c r="D117">
         <v>0.121</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
         <v>61</v>
       </c>
-      <c r="C34">
+      <c r="C118">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D118">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
         <v>61</v>
       </c>
-      <c r="C35">
+      <c r="C119">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D119">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
         <v>61</v>
       </c>
-      <c r="C36">
+      <c r="C120">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D120">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
         <v>61</v>
       </c>
-      <c r="C37">
+      <c r="C121">
         <v>11</v>
       </c>
-      <c r="D37">
+      <c r="D121">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
         <v>61</v>
       </c>
-      <c r="C38">
+      <c r="C122">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="D122">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
         <v>61</v>
       </c>
-      <c r="C39">
+      <c r="C123">
         <v>13</v>
       </c>
-      <c r="D39">
+      <c r="D123">
         <v>0.187</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
         <v>61</v>
       </c>
-      <c r="C40">
+      <c r="C124">
         <v>14</v>
       </c>
-      <c r="D40">
+      <c r="D124">
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
         <v>61</v>
       </c>
-      <c r="C41">
+      <c r="C125">
         <v>15</v>
       </c>
-      <c r="D41">
+      <c r="D125">
         <v>0.187</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
         <v>61</v>
       </c>
-      <c r="C42">
+      <c r="C126">
         <v>16</v>
       </c>
-      <c r="D42">
+      <c r="D126">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
         <v>61</v>
       </c>
-      <c r="C43">
+      <c r="C127">
         <v>17</v>
       </c>
-      <c r="D43">
+      <c r="D127">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
         <v>61</v>
       </c>
-      <c r="C44">
+      <c r="C128">
         <v>18</v>
       </c>
-      <c r="D44">
+      <c r="D128">
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
         <v>61</v>
       </c>
-      <c r="C45">
+      <c r="C129">
         <v>19</v>
       </c>
-      <c r="D45">
+      <c r="D129">
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
         <v>61</v>
       </c>
-      <c r="C46">
+      <c r="C130">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="D130">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
         <v>61</v>
       </c>
-      <c r="C47">
+      <c r="C131">
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="D131">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
         <v>61</v>
       </c>
-      <c r="C48">
+      <c r="C132">
         <v>22</v>
       </c>
-      <c r="D48">
+      <c r="D132">
         <v>0.436</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
         <v>61</v>
       </c>
-      <c r="C49">
+      <c r="C133">
         <v>23</v>
       </c>
-      <c r="D49">
+      <c r="D133">
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
         <v>61</v>
       </c>
-      <c r="C50">
+      <c r="C134">
         <v>24</v>
       </c>
-      <c r="D50">
+      <c r="D134">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
         <v>61</v>
       </c>
-      <c r="C51">
+      <c r="C135">
         <v>25</v>
       </c>
-      <c r="D51">
+      <c r="D135">
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
         <v>61</v>
       </c>
-      <c r="C52">
+      <c r="C136">
         <v>26</v>
       </c>
-      <c r="D52">
+      <c r="D136">
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
         <v>61</v>
       </c>
-      <c r="C53">
+      <c r="C137">
         <v>27</v>
       </c>
-      <c r="D53">
+      <c r="D137">
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="s">
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
         <v>61</v>
       </c>
-      <c r="C54">
+      <c r="C138">
         <v>28</v>
       </c>
-      <c r="D54">
+      <c r="D138">
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
         <v>62</v>
       </c>
-      <c r="C58">
+      <c r="C142">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="D142">
         <v>0.192</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
         <v>62</v>
       </c>
-      <c r="C59">
+      <c r="C143">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D143">
         <v>0.151</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="s">
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
         <v>62</v>
       </c>
-      <c r="C60">
+      <c r="C144">
         <v>7</v>
       </c>
-      <c r="D60">
+      <c r="D144">
         <v>0.114</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
         <v>62</v>
       </c>
-      <c r="C61">
+      <c r="C145">
         <v>8</v>
       </c>
-      <c r="D61">
+      <c r="D145">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="s">
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="C146">
         <v>9</v>
       </c>
-      <c r="D62">
+      <c r="D146">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
-      <c r="B63" t="s">
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C147">
         <v>10</v>
       </c>
-      <c r="D63">
+      <c r="D147">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="s">
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
         <v>62</v>
       </c>
-      <c r="C64">
+      <c r="C148">
         <v>11</v>
       </c>
-      <c r="D64">
+      <c r="D148">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" t="s">
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
         <v>62</v>
       </c>
-      <c r="C65">
+      <c r="C149">
         <v>12</v>
       </c>
-      <c r="D65">
+      <c r="D149">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="s">
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
         <v>62</v>
       </c>
-      <c r="C66">
+      <c r="C150">
         <v>13</v>
       </c>
-      <c r="D66">
+      <c r="D150">
         <v>0.187</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67" t="s">
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
         <v>62</v>
       </c>
-      <c r="C67">
+      <c r="C151">
         <v>14</v>
       </c>
-      <c r="D67">
+      <c r="D151">
         <v>0.189</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="B68" t="s">
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
         <v>62</v>
       </c>
-      <c r="C68">
+      <c r="C152">
         <v>15</v>
       </c>
-      <c r="D68">
+      <c r="D152">
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
-      <c r="B69" t="s">
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
         <v>62</v>
       </c>
-      <c r="C69">
+      <c r="C153">
         <v>16</v>
       </c>
-      <c r="D69">
+      <c r="D153">
         <v>0.252</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="B70" t="s">
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
         <v>62</v>
       </c>
-      <c r="C70">
+      <c r="C154">
         <v>17</v>
       </c>
-      <c r="D70">
+      <c r="D154">
         <v>0.24</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
-      <c r="B71" t="s">
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
         <v>62</v>
       </c>
-      <c r="C71">
+      <c r="C155">
         <v>18</v>
       </c>
-      <c r="D71">
+      <c r="D155">
         <v>0.246</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
-      <c r="B72" t="s">
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
         <v>62</v>
       </c>
-      <c r="C72">
+      <c r="C156">
         <v>19</v>
       </c>
-      <c r="D72">
+      <c r="D156">
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
-      <c r="B73" t="s">
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
         <v>62</v>
       </c>
-      <c r="C73">
+      <c r="C157">
         <v>20</v>
       </c>
-      <c r="D73">
+      <c r="D157">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
-      <c r="B74" t="s">
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
         <v>62</v>
       </c>
-      <c r="C74">
+      <c r="C158">
         <v>21</v>
       </c>
-      <c r="D74">
+      <c r="D158">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
-      <c r="B75" t="s">
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
         <v>62</v>
       </c>
-      <c r="C75">
+      <c r="C159">
         <v>22</v>
       </c>
-      <c r="D75">
+      <c r="D159">
         <v>0.432</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
-      <c r="B76" t="s">
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
         <v>62</v>
       </c>
-      <c r="C76">
+      <c r="C160">
         <v>23</v>
       </c>
-      <c r="D76">
+      <c r="D160">
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
-      <c r="B77" t="s">
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
         <v>62</v>
       </c>
-      <c r="C77">
+      <c r="C161">
         <v>24</v>
       </c>
-      <c r="D77">
+      <c r="D161">
         <v>0.45</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
-      <c r="B78" t="s">
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
         <v>62</v>
       </c>
-      <c r="C78">
+      <c r="C162">
         <v>25</v>
       </c>
-      <c r="D78">
+      <c r="D162">
         <v>0.45</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
-      <c r="B79" t="s">
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
         <v>62</v>
       </c>
-      <c r="C79">
+      <c r="C163">
         <v>26</v>
       </c>
-      <c r="D79">
+      <c r="D163">
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
-      <c r="B80" t="s">
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
         <v>62</v>
       </c>
-      <c r="C80">
+      <c r="C164">
         <v>27</v>
       </c>
-      <c r="D80">
+      <c r="D164">
         <v>0.45</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
-      <c r="B81" t="s">
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
         <v>62</v>
       </c>
-      <c r="C81">
+      <c r="C165">
         <v>28</v>
       </c>
-      <c r="D81">
+      <c r="D165">
         <v>0.44900000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18">
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N84" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O84" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q84" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="R84" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="2:18">
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="2:18">
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" t="s">
-        <v>6</v>
-      </c>
-      <c r="I86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:18">
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87">
-        <v>32</v>
-      </c>
-      <c r="D87">
-        <v>33554432</v>
-      </c>
-      <c r="E87">
-        <v>1073741824</v>
-      </c>
-      <c r="F87">
-        <v>22.988</v>
-      </c>
-      <c r="G87">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="H87">
-        <v>23.202999999999999</v>
-      </c>
-      <c r="I87">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="K87" t="s">
-        <v>40</v>
-      </c>
-      <c r="L87" t="s">
-        <v>33</v>
-      </c>
-      <c r="M87" t="s">
-        <v>75</v>
-      </c>
-      <c r="N87">
-        <f>G93</f>
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="O87">
-        <f>G96</f>
-        <v>0.437</v>
-      </c>
-      <c r="P87">
-        <f>G99</f>
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="Q87">
-        <f>G102</f>
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="R87">
-        <f>G105</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="88" spans="2:18">
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>64</v>
-      </c>
-      <c r="D88">
-        <v>16777216</v>
-      </c>
-      <c r="E88">
-        <v>1073741824</v>
-      </c>
-      <c r="F88">
-        <v>37.143999999999998</v>
-      </c>
-      <c r="G88">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H88">
-        <v>33.628</v>
-      </c>
-      <c r="I88">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="K88" t="s">
-        <v>40</v>
-      </c>
-      <c r="L88" t="s">
-        <v>34</v>
-      </c>
-      <c r="M88" t="s">
-        <v>75</v>
-      </c>
-      <c r="N88">
-        <f>I93</f>
-        <v>0.31</v>
-      </c>
-      <c r="O88">
-        <f>I96</f>
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="P88">
-        <f>I99</f>
-        <v>0.372</v>
-      </c>
-      <c r="Q88">
-        <f>I102</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="R88">
-        <f>I105</f>
-        <v>0.93300000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18">
-      <c r="B89">
-        <v>7</v>
-      </c>
-      <c r="C89">
-        <v>128</v>
-      </c>
-      <c r="D89">
-        <v>8388608</v>
-      </c>
-      <c r="E89">
-        <v>1073741824</v>
-      </c>
-      <c r="F89">
-        <v>64.227000000000004</v>
-      </c>
-      <c r="G89">
-        <v>0.502</v>
-      </c>
-      <c r="H89">
-        <v>52.755000000000003</v>
-      </c>
-      <c r="I89">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="K89" t="s">
-        <v>40</v>
-      </c>
-      <c r="L89" t="s">
-        <v>33</v>
-      </c>
-      <c r="M89" t="s">
-        <v>76</v>
-      </c>
-      <c r="N89">
-        <f>G121</f>
-        <v>0.104</v>
-      </c>
-      <c r="O89">
-        <f>G124</f>
-        <v>0.191</v>
-      </c>
-      <c r="P89">
-        <f>G127</f>
-        <v>0.25</v>
-      </c>
-      <c r="Q89">
-        <f>G130</f>
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="R89">
-        <f>G133</f>
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18">
-      <c r="B90">
-        <v>8</v>
-      </c>
-      <c r="C90">
-        <v>256</v>
-      </c>
-      <c r="D90">
-        <v>4194304</v>
-      </c>
-      <c r="E90">
-        <v>1073741824</v>
-      </c>
-      <c r="F90">
-        <v>116.059</v>
-      </c>
-      <c r="G90">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="H90">
-        <v>92.349000000000004</v>
-      </c>
-      <c r="I90">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="K90" t="s">
-        <v>40</v>
-      </c>
-      <c r="L90" t="s">
-        <v>34</v>
-      </c>
-      <c r="M90" t="s">
-        <v>76</v>
-      </c>
-      <c r="N90">
-        <f>I121</f>
-        <v>0.23</v>
-      </c>
-      <c r="O90">
-        <f>I124</f>
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="P90">
-        <f>I127</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="Q90">
-        <f>I130</f>
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="R90">
-        <f>I133</f>
-        <v>0.89200000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="2:18">
-      <c r="B91">
-        <v>9</v>
-      </c>
-      <c r="C91">
-        <v>512</v>
-      </c>
-      <c r="D91">
-        <v>2097152</v>
-      </c>
-      <c r="E91">
-        <v>1073741824</v>
-      </c>
-      <c r="F91">
-        <v>226.60499999999999</v>
-      </c>
-      <c r="G91">
-        <v>0.443</v>
-      </c>
-      <c r="H91">
-        <v>171.54400000000001</v>
-      </c>
-      <c r="I91">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="K91" t="s">
-        <v>40</v>
-      </c>
-      <c r="L91" t="s">
-        <v>33</v>
-      </c>
-      <c r="M91" t="s">
-        <v>77</v>
-      </c>
-      <c r="N91">
-        <f>G149</f>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="O91">
-        <f>G152</f>
-        <v>0.187</v>
-      </c>
-      <c r="P91">
-        <f>G155</f>
-        <v>0.248</v>
-      </c>
-      <c r="Q91">
-        <f>G158</f>
-        <v>0.41</v>
-      </c>
-      <c r="R91">
-        <f>G161</f>
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="2:18">
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="C92">
-        <v>1024</v>
-      </c>
-      <c r="D92">
-        <v>1048576</v>
-      </c>
-      <c r="E92">
-        <v>1073741824</v>
-      </c>
-      <c r="F92">
-        <v>437.875</v>
-      </c>
-      <c r="G92">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="H92">
-        <v>323.91800000000001</v>
-      </c>
-      <c r="I92">
-        <v>0.316</v>
-      </c>
-      <c r="K92" t="s">
-        <v>40</v>
-      </c>
-      <c r="L92" t="s">
-        <v>34</v>
-      </c>
-      <c r="M92" t="s">
-        <v>77</v>
-      </c>
-      <c r="N92">
-        <f>I149</f>
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="O92">
-        <f>I152</f>
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="P92">
-        <f>I155</f>
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="Q92">
-        <f>I158</f>
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="R92">
-        <f>I161</f>
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="2:18">
-      <c r="B93" s="5">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D93" s="5">
-        <v>524288</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F93" s="5">
-        <v>855.78499999999997</v>
-      </c>
-      <c r="G93" s="17">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H93" s="5">
-        <v>634.15300000000002</v>
-      </c>
-      <c r="I93" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18">
-      <c r="B94">
-        <v>12</v>
-      </c>
-      <c r="C94">
-        <v>4096</v>
-      </c>
-      <c r="D94">
-        <v>262144</v>
-      </c>
-      <c r="E94">
-        <v>1073741824</v>
-      </c>
-      <c r="F94">
-        <v>1711.1510000000001</v>
-      </c>
-      <c r="G94">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H94">
-        <v>1242.8510000000001</v>
-      </c>
-      <c r="I94">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18">
-      <c r="B95">
-        <v>13</v>
-      </c>
-      <c r="C95">
-        <v>8192</v>
-      </c>
-      <c r="D95">
-        <v>131072</v>
-      </c>
-      <c r="E95">
-        <v>1073741824</v>
-      </c>
-      <c r="F95">
-        <v>3536.5450000000001</v>
-      </c>
-      <c r="G95">
-        <v>0.432</v>
-      </c>
-      <c r="H95">
-        <v>2805.3209999999999</v>
-      </c>
-      <c r="I95">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18">
-      <c r="B96" s="5">
-        <v>14</v>
-      </c>
-      <c r="C96" s="5">
-        <v>16384</v>
-      </c>
-      <c r="D96" s="5">
-        <v>65536</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F96" s="5">
-        <v>7157.0429999999997</v>
-      </c>
-      <c r="G96" s="17">
-        <v>0.437</v>
-      </c>
-      <c r="H96" s="5">
-        <v>5553.8940000000002</v>
-      </c>
-      <c r="I96" s="5">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97">
-        <v>15</v>
-      </c>
-      <c r="C97">
-        <v>32768</v>
-      </c>
-      <c r="D97">
-        <v>32768</v>
-      </c>
-      <c r="E97">
-        <v>1073741824</v>
-      </c>
-      <c r="F97">
-        <v>14224.457</v>
-      </c>
-      <c r="G97">
-        <v>0.434</v>
-      </c>
-      <c r="H97">
-        <v>11168.457</v>
-      </c>
-      <c r="I97">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98">
-        <v>16</v>
-      </c>
-      <c r="C98">
-        <v>65536</v>
-      </c>
-      <c r="D98">
-        <v>16384</v>
-      </c>
-      <c r="E98">
-        <v>1073741824</v>
-      </c>
-      <c r="F98">
-        <v>29285.95</v>
-      </c>
-      <c r="G98">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H98">
-        <v>24319.58</v>
-      </c>
-      <c r="I98">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="5">
-        <v>17</v>
-      </c>
-      <c r="C99" s="5">
-        <v>131072</v>
-      </c>
-      <c r="D99" s="5">
-        <v>8192</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F99" s="5">
-        <v>58482.665999999997</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H99" s="5">
-        <v>48795.044000000002</v>
-      </c>
-      <c r="I99" s="5">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100">
-        <v>18</v>
-      </c>
-      <c r="C100">
-        <v>262144</v>
-      </c>
-      <c r="D100">
-        <v>4096</v>
-      </c>
-      <c r="E100">
-        <v>1073741824</v>
-      </c>
-      <c r="F100">
-        <v>116859.863</v>
-      </c>
-      <c r="G100">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H100">
-        <v>100057.617</v>
-      </c>
-      <c r="I100">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101">
-        <v>19</v>
-      </c>
-      <c r="C101">
-        <v>524288</v>
-      </c>
-      <c r="D101">
-        <v>2048</v>
-      </c>
-      <c r="E101">
-        <v>1073741824</v>
-      </c>
-      <c r="F101">
-        <v>260407.715</v>
-      </c>
-      <c r="G101">
-        <v>0.497</v>
-      </c>
-      <c r="H101">
-        <v>221765.13699999999</v>
-      </c>
-      <c r="I101">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="5">
-        <v>20</v>
-      </c>
-      <c r="C102" s="5">
-        <v>1048576</v>
-      </c>
-      <c r="D102" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E102" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F102" s="5">
-        <v>632340.81999999995</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="H102" s="5">
-        <v>760004.88300000003</v>
-      </c>
-      <c r="I102" s="5">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103">
-        <v>21</v>
-      </c>
-      <c r="C103">
-        <v>2097152</v>
-      </c>
-      <c r="D103">
-        <v>512</v>
-      </c>
-      <c r="E103">
-        <v>1073741824</v>
-      </c>
-      <c r="F103">
-        <v>1272179.6880000001</v>
-      </c>
-      <c r="G103">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="H103">
-        <v>1844480.469</v>
-      </c>
-      <c r="I103">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104">
-        <v>22</v>
-      </c>
-      <c r="C104">
-        <v>4194304</v>
-      </c>
-      <c r="D104">
-        <v>256</v>
-      </c>
-      <c r="E104">
-        <v>1073741824</v>
-      </c>
-      <c r="F104">
-        <v>2562691.406</v>
-      </c>
-      <c r="G104">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="H104">
-        <v>3682414.0619999999</v>
-      </c>
-      <c r="I104">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="5">
-        <v>23</v>
-      </c>
-      <c r="C105" s="5">
-        <v>8388608</v>
-      </c>
-      <c r="D105" s="5">
-        <v>128</v>
-      </c>
-      <c r="E105" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F105" s="5">
-        <v>5199929.6880000001</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="H105" s="5">
-        <v>7825093.75</v>
-      </c>
-      <c r="I105" s="5">
-        <v>0.93300000000000005</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106">
-        <v>24</v>
-      </c>
-      <c r="C106">
-        <v>16777216</v>
-      </c>
-      <c r="D106">
-        <v>64</v>
-      </c>
-      <c r="E106">
-        <v>1073741824</v>
-      </c>
-      <c r="F106">
-        <v>10166484.375</v>
-      </c>
-      <c r="G106">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="H106">
-        <v>15346937.5</v>
-      </c>
-      <c r="I106">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107">
-        <v>25</v>
-      </c>
-      <c r="C107">
-        <v>33554432</v>
-      </c>
-      <c r="D107">
-        <v>32</v>
-      </c>
-      <c r="E107">
-        <v>1073741824</v>
-      </c>
-      <c r="F107">
-        <v>20185812.5</v>
-      </c>
-      <c r="G107">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="H107">
-        <v>31724062.5</v>
-      </c>
-      <c r="I107">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108">
-        <v>26</v>
-      </c>
-      <c r="C108">
-        <v>67108864</v>
-      </c>
-      <c r="D108">
-        <v>16</v>
-      </c>
-      <c r="E108">
-        <v>1073741824</v>
-      </c>
-      <c r="F108">
-        <v>40219375</v>
-      </c>
-      <c r="G108">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="H108">
-        <v>66789437.5</v>
-      </c>
-      <c r="I108">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109">
-        <v>27</v>
-      </c>
-      <c r="C109">
-        <v>134217728</v>
-      </c>
-      <c r="D109">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>1073741824</v>
-      </c>
-      <c r="F109">
-        <v>80590875</v>
-      </c>
-      <c r="G109">
-        <v>0.6</v>
-      </c>
-      <c r="H109">
-        <v>152099250</v>
-      </c>
-      <c r="I109">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110">
-        <v>28</v>
-      </c>
-      <c r="C110">
-        <v>268435456</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110">
-        <v>1073741824</v>
-      </c>
-      <c r="F110">
-        <v>161100500</v>
-      </c>
-      <c r="G110">
-        <v>0.6</v>
-      </c>
-      <c r="H110">
-        <v>374838000</v>
-      </c>
-      <c r="I110">
-        <v>1.3959999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" t="s">
-        <v>6</v>
-      </c>
-      <c r="I114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115">
-        <v>5</v>
-      </c>
-      <c r="C115">
-        <v>32</v>
-      </c>
-      <c r="D115">
-        <v>33554432</v>
-      </c>
-      <c r="E115">
-        <v>1073741824</v>
-      </c>
-      <c r="F115">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="G115">
-        <v>0.18</v>
-      </c>
-      <c r="H115">
-        <v>9.1349999999999998</v>
-      </c>
-      <c r="I115">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>64</v>
-      </c>
-      <c r="D116">
-        <v>16777216</v>
-      </c>
-      <c r="E116">
-        <v>1073741824</v>
-      </c>
-      <c r="F116">
-        <v>10.569000000000001</v>
-      </c>
-      <c r="G116">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H116">
-        <v>16.321000000000002</v>
-      </c>
-      <c r="I116">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117">
-        <v>7</v>
-      </c>
-      <c r="C117">
-        <v>128</v>
-      </c>
-      <c r="D117">
-        <v>8388608</v>
-      </c>
-      <c r="E117">
-        <v>1073741824</v>
-      </c>
-      <c r="F117">
-        <v>17.414999999999999</v>
-      </c>
-      <c r="G117">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H117">
-        <v>30.503</v>
-      </c>
-      <c r="I117">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>256</v>
-      </c>
-      <c r="D118">
-        <v>4194304</v>
-      </c>
-      <c r="E118">
-        <v>1073741824</v>
-      </c>
-      <c r="F118">
-        <v>29.768999999999998</v>
-      </c>
-      <c r="G118">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="H118">
-        <v>64.716999999999999</v>
-      </c>
-      <c r="I118">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119">
-        <v>9</v>
-      </c>
-      <c r="C119">
-        <v>512</v>
-      </c>
-      <c r="D119">
-        <v>2097152</v>
-      </c>
-      <c r="E119">
-        <v>1073741824</v>
-      </c>
-      <c r="F119">
-        <v>54.786999999999999</v>
-      </c>
-      <c r="G119">
-        <v>0.107</v>
-      </c>
-      <c r="H119">
-        <v>123.37</v>
-      </c>
-      <c r="I119">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120">
-        <v>10</v>
-      </c>
-      <c r="C120">
-        <v>1024</v>
-      </c>
-      <c r="D120">
-        <v>1048576</v>
-      </c>
-      <c r="E120">
-        <v>1073741824</v>
-      </c>
-      <c r="F120">
-        <v>104.366</v>
-      </c>
-      <c r="G120">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H120">
-        <v>237.63900000000001</v>
-      </c>
-      <c r="I120">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="5">
-        <v>11</v>
-      </c>
-      <c r="C121" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D121" s="5">
-        <v>524288</v>
-      </c>
-      <c r="E121" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F121" s="5">
-        <v>212.654</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0.104</v>
-      </c>
-      <c r="H121" s="5">
-        <v>470.88600000000002</v>
-      </c>
-      <c r="I121" s="5">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="B122">
-        <v>12</v>
-      </c>
-      <c r="C122">
-        <v>4096</v>
-      </c>
-      <c r="D122">
-        <v>262144</v>
-      </c>
-      <c r="E122">
-        <v>1073741824</v>
-      </c>
-      <c r="F122">
-        <v>429.03899999999999</v>
-      </c>
-      <c r="G122">
-        <v>0.105</v>
-      </c>
-      <c r="H122">
-        <v>950.05799999999999</v>
-      </c>
-      <c r="I122">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123">
-        <v>13</v>
-      </c>
-      <c r="C123">
-        <v>8192</v>
-      </c>
-      <c r="D123">
-        <v>131072</v>
-      </c>
-      <c r="E123">
-        <v>1073741824</v>
-      </c>
-      <c r="F123">
-        <v>1545.2270000000001</v>
-      </c>
-      <c r="G123">
-        <v>0.189</v>
-      </c>
-      <c r="H123">
-        <v>1851.395</v>
-      </c>
-      <c r="I123">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="5">
-        <v>14</v>
-      </c>
-      <c r="C124" s="5">
-        <v>16384</v>
-      </c>
-      <c r="D124" s="5">
-        <v>65536</v>
-      </c>
-      <c r="E124" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F124" s="5">
-        <v>3136.6579999999999</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0.191</v>
-      </c>
-      <c r="H124" s="5">
-        <v>3867.1570000000002</v>
-      </c>
-      <c r="I124" s="5">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125">
-        <v>15</v>
-      </c>
-      <c r="C125">
-        <v>32768</v>
-      </c>
-      <c r="D125">
-        <v>32768</v>
-      </c>
-      <c r="E125">
-        <v>1073741824</v>
-      </c>
-      <c r="F125">
-        <v>6155.3040000000001</v>
-      </c>
-      <c r="G125">
-        <v>0.188</v>
-      </c>
-      <c r="H125">
-        <v>7959.7169999999996</v>
-      </c>
-      <c r="I125">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126">
-        <v>16</v>
-      </c>
-      <c r="C126">
-        <v>65536</v>
-      </c>
-      <c r="D126">
-        <v>16384</v>
-      </c>
-      <c r="E126">
-        <v>1073741824</v>
-      </c>
-      <c r="F126">
-        <v>16493.591</v>
-      </c>
-      <c r="G126">
-        <v>0.252</v>
-      </c>
-      <c r="H126">
-        <v>21668.456999999999</v>
-      </c>
-      <c r="I126">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="5">
-        <v>17</v>
-      </c>
-      <c r="C127" s="5">
-        <v>131072</v>
-      </c>
-      <c r="D127" s="5">
-        <v>8192</v>
-      </c>
-      <c r="E127" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F127" s="5">
-        <v>32710.327000000001</v>
-      </c>
-      <c r="G127" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="H127" s="5">
-        <v>43621.826000000001</v>
-      </c>
-      <c r="I127" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128">
-        <v>18</v>
-      </c>
-      <c r="C128">
-        <v>262144</v>
-      </c>
-      <c r="D128">
-        <v>4096</v>
-      </c>
-      <c r="E128">
-        <v>1073741824</v>
-      </c>
-      <c r="F128">
-        <v>65725.097999999998</v>
-      </c>
-      <c r="G128">
-        <v>0.251</v>
-      </c>
-      <c r="H128">
-        <v>86925.536999999997</v>
-      </c>
-      <c r="I128">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129">
-        <v>19</v>
-      </c>
-      <c r="C129">
-        <v>524288</v>
-      </c>
-      <c r="D129">
-        <v>2048</v>
-      </c>
-      <c r="E129">
-        <v>1073741824</v>
-      </c>
-      <c r="F129">
-        <v>154513.67199999999</v>
-      </c>
-      <c r="G129">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H129">
-        <v>201922.85200000001</v>
-      </c>
-      <c r="I129">
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="5">
-        <v>20</v>
-      </c>
-      <c r="C130" s="5">
-        <v>1048576</v>
-      </c>
-      <c r="D130" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E130" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F130" s="5">
-        <v>429012.69500000001</v>
-      </c>
-      <c r="G130" s="5">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H130" s="5">
-        <v>668174.80500000005</v>
-      </c>
-      <c r="I130" s="5">
-        <v>0.63700000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9">
-      <c r="B131">
-        <v>21</v>
-      </c>
-      <c r="C131">
-        <v>2097152</v>
-      </c>
-      <c r="D131">
-        <v>512</v>
-      </c>
-      <c r="E131">
-        <v>1073741824</v>
-      </c>
-      <c r="F131">
-        <v>951107.42200000002</v>
-      </c>
-      <c r="G131">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="H131">
-        <v>1783164.0619999999</v>
-      </c>
-      <c r="I131">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9">
-      <c r="B132">
-        <v>22</v>
-      </c>
-      <c r="C132">
-        <v>4194304</v>
-      </c>
-      <c r="D132">
-        <v>256</v>
-      </c>
-      <c r="E132">
-        <v>1073741824</v>
-      </c>
-      <c r="F132">
-        <v>1998523.4380000001</v>
-      </c>
-      <c r="G132">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H132">
-        <v>3690273.4380000001</v>
-      </c>
-      <c r="I132">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="5">
-        <v>23</v>
-      </c>
-      <c r="C133" s="5">
-        <v>8388608</v>
-      </c>
-      <c r="D133" s="5">
-        <v>128</v>
-      </c>
-      <c r="E133" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F133" s="5">
-        <v>4020695.3119999999</v>
-      </c>
-      <c r="G133" s="5">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="H133" s="5">
-        <v>7486093.75</v>
-      </c>
-      <c r="I133" s="5">
-        <v>0.89200000000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134">
-        <v>24</v>
-      </c>
-      <c r="C134">
-        <v>16777216</v>
-      </c>
-      <c r="D134">
-        <v>64</v>
-      </c>
-      <c r="E134">
-        <v>1073741824</v>
-      </c>
-      <c r="F134">
-        <v>7938687.5</v>
-      </c>
-      <c r="G134">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H134">
-        <v>15057156.25</v>
-      </c>
-      <c r="I134">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135">
-        <v>25</v>
-      </c>
-      <c r="C135">
-        <v>33554432</v>
-      </c>
-      <c r="D135">
-        <v>32</v>
-      </c>
-      <c r="E135">
-        <v>1073741824</v>
-      </c>
-      <c r="F135">
-        <v>15863437.5</v>
-      </c>
-      <c r="G135">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H135">
-        <v>31004468.75</v>
-      </c>
-      <c r="I135">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9">
-      <c r="B136">
-        <v>26</v>
-      </c>
-      <c r="C136">
-        <v>67108864</v>
-      </c>
-      <c r="D136">
-        <v>16</v>
-      </c>
-      <c r="E136">
-        <v>1073741824</v>
-      </c>
-      <c r="F136">
-        <v>32154875</v>
-      </c>
-      <c r="G136">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="H136">
-        <v>66507312.5</v>
-      </c>
-      <c r="I136">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9">
-      <c r="B137">
-        <v>27</v>
-      </c>
-      <c r="C137">
-        <v>134217728</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137">
-        <v>1073741824</v>
-      </c>
-      <c r="F137">
-        <v>63854250</v>
-      </c>
-      <c r="G137">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H137">
-        <v>150512750</v>
-      </c>
-      <c r="I137">
-        <v>1.121</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9">
-      <c r="B138">
-        <v>28</v>
-      </c>
-      <c r="C138">
-        <v>268435456</v>
-      </c>
-      <c r="D138">
-        <v>4</v>
-      </c>
-      <c r="E138">
-        <v>1073741824</v>
-      </c>
-      <c r="F138">
-        <v>125904500</v>
-      </c>
-      <c r="G138">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="H138">
-        <v>367864000</v>
-      </c>
-      <c r="I138">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9">
-      <c r="B141" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9">
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
-        <v>4</v>
-      </c>
-      <c r="G142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" t="s">
-        <v>6</v>
-      </c>
-      <c r="I142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9">
-      <c r="B143">
-        <v>5</v>
-      </c>
-      <c r="C143">
-        <v>32</v>
-      </c>
-      <c r="D143">
-        <v>33554432</v>
-      </c>
-      <c r="E143">
-        <v>1073741824</v>
-      </c>
-      <c r="F143">
-        <v>6.4850000000000003</v>
-      </c>
-      <c r="G143">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H143">
-        <v>8.7140000000000004</v>
-      </c>
-      <c r="I143">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9">
-      <c r="B144">
-        <v>6</v>
-      </c>
-      <c r="C144">
-        <v>64</v>
-      </c>
-      <c r="D144">
-        <v>16777216</v>
-      </c>
-      <c r="E144">
-        <v>1073741824</v>
-      </c>
-      <c r="F144">
-        <v>9.1829999999999998</v>
-      </c>
-      <c r="G144">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H144">
-        <v>16.193999999999999</v>
-      </c>
-      <c r="I144">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="B145">
-        <v>7</v>
-      </c>
-      <c r="C145">
-        <v>128</v>
-      </c>
-      <c r="D145">
-        <v>8388608</v>
-      </c>
-      <c r="E145">
-        <v>1073741824</v>
-      </c>
-      <c r="F145">
-        <v>15.276</v>
-      </c>
-      <c r="G145">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="H145">
-        <v>30.242999999999999</v>
-      </c>
-      <c r="I145">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146">
-        <v>8</v>
-      </c>
-      <c r="C146">
-        <v>256</v>
-      </c>
-      <c r="D146">
-        <v>4194304</v>
-      </c>
-      <c r="E146">
-        <v>1073741824</v>
-      </c>
-      <c r="F146">
-        <v>27.81</v>
-      </c>
-      <c r="G146">
-        <v>0.109</v>
-      </c>
-      <c r="H146">
-        <v>62.386000000000003</v>
-      </c>
-      <c r="I146">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147">
-        <v>9</v>
-      </c>
-      <c r="C147">
-        <v>512</v>
-      </c>
-      <c r="D147">
-        <v>2097152</v>
-      </c>
-      <c r="E147">
-        <v>1073741824</v>
-      </c>
-      <c r="F147">
-        <v>51.106999999999999</v>
-      </c>
-      <c r="G147">
-        <v>0.1</v>
-      </c>
-      <c r="H147">
-        <v>124.22</v>
-      </c>
-      <c r="I147">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148">
-        <v>10</v>
-      </c>
-      <c r="C148">
-        <v>1024</v>
-      </c>
-      <c r="D148">
-        <v>1048576</v>
-      </c>
-      <c r="E148">
-        <v>1073741824</v>
-      </c>
-      <c r="F148">
-        <v>106.947</v>
-      </c>
-      <c r="G148">
-        <v>0.104</v>
-      </c>
-      <c r="H148">
-        <v>240.333</v>
-      </c>
-      <c r="I148">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="5">
-        <v>11</v>
-      </c>
-      <c r="C149" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D149" s="5">
-        <v>524288</v>
-      </c>
-      <c r="E149" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F149" s="5">
-        <v>201.26</v>
-      </c>
-      <c r="G149" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="H149" s="5">
-        <v>474.89</v>
-      </c>
-      <c r="I149" s="5">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150">
-        <v>12</v>
-      </c>
-      <c r="C150">
-        <v>4096</v>
-      </c>
-      <c r="D150">
-        <v>262144</v>
-      </c>
-      <c r="E150">
-        <v>1073741824</v>
-      </c>
-      <c r="F150">
-        <v>413.23500000000001</v>
-      </c>
-      <c r="G150">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H150">
-        <v>909.24099999999999</v>
-      </c>
-      <c r="I150">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151">
-        <v>13</v>
-      </c>
-      <c r="C151">
-        <v>8192</v>
-      </c>
-      <c r="D151">
-        <v>131072</v>
-      </c>
-      <c r="E151">
-        <v>1073741824</v>
-      </c>
-      <c r="F151">
-        <v>1509.6890000000001</v>
-      </c>
-      <c r="G151">
-        <v>0.184</v>
-      </c>
-      <c r="H151">
-        <v>1899.9559999999999</v>
-      </c>
-      <c r="I151">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="5">
-        <v>14</v>
-      </c>
-      <c r="C152" s="5">
-        <v>16384</v>
-      </c>
-      <c r="D152" s="5">
-        <v>65536</v>
-      </c>
-      <c r="E152" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F152" s="5">
-        <v>3062.9119999999998</v>
-      </c>
-      <c r="G152" s="5">
-        <v>0.187</v>
-      </c>
-      <c r="H152" s="5">
-        <v>3881.8969999999999</v>
-      </c>
-      <c r="I152" s="5">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153">
-        <v>15</v>
-      </c>
-      <c r="C153">
-        <v>32768</v>
-      </c>
-      <c r="D153">
-        <v>32768</v>
-      </c>
-      <c r="E153">
-        <v>1073741824</v>
-      </c>
-      <c r="F153">
-        <v>6169.4639999999999</v>
-      </c>
-      <c r="G153">
-        <v>0.188</v>
-      </c>
-      <c r="H153">
-        <v>7935.6379999999999</v>
-      </c>
-      <c r="I153">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154">
-        <v>16</v>
-      </c>
-      <c r="C154">
-        <v>65536</v>
-      </c>
-      <c r="D154">
-        <v>16384</v>
-      </c>
-      <c r="E154">
-        <v>1073741824</v>
-      </c>
-      <c r="F154">
-        <v>16413.269</v>
-      </c>
-      <c r="G154">
-        <v>0.25</v>
-      </c>
-      <c r="H154">
-        <v>21504.760999999999</v>
-      </c>
-      <c r="I154">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="5">
-        <v>17</v>
-      </c>
-      <c r="C155" s="5">
-        <v>131072</v>
-      </c>
-      <c r="D155" s="5">
-        <v>8192</v>
-      </c>
-      <c r="E155" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F155" s="5">
-        <v>32495.361000000001</v>
-      </c>
-      <c r="G155" s="5">
-        <v>0.248</v>
-      </c>
-      <c r="H155" s="5">
-        <v>43717.163</v>
-      </c>
-      <c r="I155" s="5">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156">
-        <v>18</v>
-      </c>
-      <c r="C156">
-        <v>262144</v>
-      </c>
-      <c r="D156">
-        <v>4096</v>
-      </c>
-      <c r="E156">
-        <v>1073741824</v>
-      </c>
-      <c r="F156">
-        <v>65736.084000000003</v>
-      </c>
-      <c r="G156">
-        <v>0.251</v>
-      </c>
-      <c r="H156">
-        <v>87460.692999999999</v>
-      </c>
-      <c r="I156">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157">
-        <v>19</v>
-      </c>
-      <c r="C157">
-        <v>524288</v>
-      </c>
-      <c r="D157">
-        <v>2048</v>
-      </c>
-      <c r="E157">
-        <v>1073741824</v>
-      </c>
-      <c r="F157">
-        <v>160188.965</v>
-      </c>
-      <c r="G157">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="H157">
-        <v>193105.46900000001</v>
-      </c>
-      <c r="I157">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="5">
-        <v>20</v>
-      </c>
-      <c r="C158" s="5">
-        <v>1048576</v>
-      </c>
-      <c r="D158" s="5">
-        <v>1024</v>
-      </c>
-      <c r="E158" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F158" s="5">
-        <v>430384.766</v>
-      </c>
-      <c r="G158" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="H158" s="5">
-        <v>673153.32</v>
-      </c>
-      <c r="I158" s="5">
-        <v>0.64200000000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="B159">
-        <v>21</v>
-      </c>
-      <c r="C159">
-        <v>2097152</v>
-      </c>
-      <c r="D159">
-        <v>512</v>
-      </c>
-      <c r="E159">
-        <v>1073741824</v>
-      </c>
-      <c r="F159">
-        <v>940800.78099999996</v>
-      </c>
-      <c r="G159">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H159">
-        <v>1738085.9380000001</v>
-      </c>
-      <c r="I159">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160">
-        <v>22</v>
-      </c>
-      <c r="C160">
-        <v>4194304</v>
-      </c>
-      <c r="D160">
-        <v>256</v>
-      </c>
-      <c r="E160">
-        <v>1073741824</v>
-      </c>
-      <c r="F160">
-        <v>1988046.875</v>
-      </c>
-      <c r="G160">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H160">
-        <v>3681203.125</v>
-      </c>
-      <c r="I160">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="5">
-        <v>23</v>
-      </c>
-      <c r="C161" s="5">
-        <v>8388608</v>
-      </c>
-      <c r="D161" s="5">
-        <v>128</v>
-      </c>
-      <c r="E161" s="5">
-        <v>1073741824</v>
-      </c>
-      <c r="F161" s="5">
-        <v>3964109.375</v>
-      </c>
-      <c r="G161" s="5">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H161" s="5">
-        <v>7520882.8119999999</v>
-      </c>
-      <c r="I161" s="5">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9">
-      <c r="B162">
-        <v>24</v>
-      </c>
-      <c r="C162">
-        <v>16777216</v>
-      </c>
-      <c r="D162">
-        <v>64</v>
-      </c>
-      <c r="E162">
-        <v>1073741824</v>
-      </c>
-      <c r="F162">
-        <v>7989281.25</v>
-      </c>
-      <c r="G162">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H162">
-        <v>15051703.125</v>
-      </c>
-      <c r="I162">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9">
-      <c r="B163">
-        <v>25</v>
-      </c>
-      <c r="C163">
-        <v>33554432</v>
-      </c>
-      <c r="D163">
-        <v>32</v>
-      </c>
-      <c r="E163">
-        <v>1073741824</v>
-      </c>
-      <c r="F163">
-        <v>15896468.75</v>
-      </c>
-      <c r="G163">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H163">
-        <v>31430812.5</v>
-      </c>
-      <c r="I163">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164">
-        <v>26</v>
-      </c>
-      <c r="C164">
-        <v>67108864</v>
-      </c>
-      <c r="D164">
-        <v>16</v>
-      </c>
-      <c r="E164">
-        <v>1073741824</v>
-      </c>
-      <c r="F164">
-        <v>31955875</v>
-      </c>
-      <c r="G164">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H164">
-        <v>66651500</v>
-      </c>
-      <c r="I164">
-        <v>0.99299999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165">
-        <v>27</v>
-      </c>
-      <c r="C165">
-        <v>134217728</v>
-      </c>
-      <c r="D165">
-        <v>8</v>
-      </c>
-      <c r="E165">
-        <v>1073741824</v>
-      </c>
-      <c r="F165">
-        <v>63767875</v>
-      </c>
-      <c r="G165">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H165">
-        <v>150625500</v>
-      </c>
-      <c r="I165">
-        <v>1.1220000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9">
-      <c r="B166">
-        <v>28</v>
-      </c>
-      <c r="C166">
-        <v>268435456</v>
-      </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-      <c r="E166">
-        <v>1073741824</v>
-      </c>
-      <c r="F166">
-        <v>126837000</v>
-      </c>
-      <c r="G166">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H166">
-        <v>370332000</v>
-      </c>
-      <c r="I166">
-        <v>1.38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -57453,7 +58472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I707"/>
   <sheetViews>
-    <sheetView topLeftCell="A647" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="22300" activePane="topRight"/>
       <selection activeCell="B532" sqref="B532:I618"/>
       <selection pane="topRight" activeCell="B620" sqref="B620:I707"/>

--- a/docs/RWSpeedTests_27Jan2017.xlsx
+++ b/docs/RWSpeedTests_27Jan2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="11040" windowWidth="29720" windowHeight="15260" tabRatio="645" activeTab="4"/>
+    <workbookView xWindow="-38300" yWindow="-460" windowWidth="37560" windowHeight="23640" tabRatio="842" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HeapVsUnsafeDirect" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="MemoryHeapVsDirectUnsafe" sheetId="24" r:id="rId6"/>
     <sheet name="Summary" sheetId="18" r:id="rId7"/>
     <sheet name="C" sheetId="19" r:id="rId8"/>
-    <sheet name="New Data" sheetId="22" r:id="rId9"/>
+    <sheet name="27Jan17" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Table2">Summary!$A$3:$J$45</definedName>
@@ -1766,7 +1766,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3963,11 +3962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128741512"/>
-        <c:axId val="-2128756920"/>
+        <c:axId val="-2032331624"/>
+        <c:axId val="-2033525352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128741512"/>
+        <c:axId val="-2032331624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -3990,7 +3989,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4007,13 +4005,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128756920"/>
+        <c:crossAx val="-2033525352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128756920"/>
+        <c:axId val="-2033525352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -4037,7 +4035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
@@ -4054,14 +4051,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128741512"/>
+        <c:crossAx val="-2032331624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4545,11 +4541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127620792"/>
-        <c:axId val="-2127642744"/>
+        <c:axId val="-2002359704"/>
+        <c:axId val="-2002362408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127620792"/>
+        <c:axId val="-2002359704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127642744"/>
+        <c:crossAx val="-2002362408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4596,7 +4592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127642744"/>
+        <c:axId val="-2002362408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4637,7 +4633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127620792"/>
+        <c:crossAx val="-2002359704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5051,11 +5047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127672360"/>
-        <c:axId val="-2127698120"/>
+        <c:axId val="-2002198024"/>
+        <c:axId val="-2002131640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127672360"/>
+        <c:axId val="-2002198024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,7 +5090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127698120"/>
+        <c:crossAx val="-2002131640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5102,7 +5098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127698120"/>
+        <c:axId val="-2002131640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5143,7 +5139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127672360"/>
+        <c:crossAx val="-2002198024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5575,11 +5571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127738696"/>
-        <c:axId val="-2127750792"/>
+        <c:axId val="-2002397480"/>
+        <c:axId val="-2002391768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127738696"/>
+        <c:axId val="-2002397480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,7 +5614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127750792"/>
+        <c:crossAx val="-2002391768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5626,7 +5622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127750792"/>
+        <c:axId val="-2002391768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -5667,7 +5663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127738696"/>
+        <c:crossAx val="-2002397480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -6477,11 +6473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2052661288"/>
-        <c:axId val="-2052655656"/>
+        <c:axId val="-2033914936"/>
+        <c:axId val="-2032230888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2052661288"/>
+        <c:axId val="-2033914936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28.0"/>
@@ -6522,13 +6518,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052655656"/>
+        <c:crossAx val="-2032230888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2052655656"/>
+        <c:axId val="-2032230888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -6569,7 +6565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052661288"/>
+        <c:crossAx val="-2033914936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6641,7 +6637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8838,11 +8833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095216920"/>
-        <c:axId val="-2095211304"/>
+        <c:axId val="-2033791960"/>
+        <c:axId val="-2033946872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095216920"/>
+        <c:axId val="-2033791960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -8865,7 +8860,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8882,13 +8876,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095211304"/>
+        <c:crossAx val="-2033946872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095211304"/>
+        <c:axId val="-2033946872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -8912,7 +8906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
@@ -8929,14 +8922,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095216920"/>
+        <c:crossAx val="-2033791960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -9001,7 +8993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11198,11 +11189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095387992"/>
-        <c:axId val="-2095382392"/>
+        <c:axId val="-2109586376"/>
+        <c:axId val="-2033806600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095387992"/>
+        <c:axId val="-2109586376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -11225,7 +11216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -11242,13 +11232,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095382392"/>
+        <c:crossAx val="-2033806600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095382392"/>
+        <c:axId val="-2033806600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11271,7 +11261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
@@ -11288,14 +11277,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095387992"/>
+        <c:crossAx val="-2109586376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11360,7 +11348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13557,11 +13544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128904936"/>
-        <c:axId val="-2128915784"/>
+        <c:axId val="-2033493000"/>
+        <c:axId val="-2033445080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128904936"/>
+        <c:axId val="-2033493000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -13584,7 +13571,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -13601,13 +13587,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128915784"/>
+        <c:crossAx val="-2033445080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128915784"/>
+        <c:axId val="-2033445080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -13631,7 +13617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
@@ -13648,14 +13633,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128904936"/>
+        <c:crossAx val="-2033493000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -15917,11 +15901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094919240"/>
-        <c:axId val="-2094913592"/>
+        <c:axId val="-2034089432"/>
+        <c:axId val="-2032720824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094919240"/>
+        <c:axId val="-2034089432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -15961,13 +15945,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094913592"/>
+        <c:crossAx val="-2032720824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094913592"/>
+        <c:axId val="-2032720824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -16008,7 +15992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094919240"/>
+        <c:crossAx val="-2034089432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18277,11 +18261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094962824"/>
-        <c:axId val="-2094968456"/>
+        <c:axId val="-2033377832"/>
+        <c:axId val="-2034066136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094962824"/>
+        <c:axId val="-2033377832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -18321,13 +18305,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094968456"/>
+        <c:crossAx val="-2034066136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094968456"/>
+        <c:axId val="-2034066136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -18368,7 +18352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094962824"/>
+        <c:crossAx val="-2033377832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20637,11 +20621,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095024664"/>
-        <c:axId val="-2095030296"/>
+        <c:axId val="-2002475944"/>
+        <c:axId val="-2002238552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095024664"/>
+        <c:axId val="-2002475944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -20681,13 +20665,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095030296"/>
+        <c:crossAx val="-2002238552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095030296"/>
+        <c:axId val="-2002238552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -20728,7 +20712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095024664"/>
+        <c:crossAx val="-2002475944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21132,11 +21116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2128265576"/>
-        <c:axId val="-2127953704"/>
+        <c:axId val="-2002077944"/>
+        <c:axId val="-2001886168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128265576"/>
+        <c:axId val="-2002077944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21174,7 +21158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127953704"/>
+        <c:crossAx val="-2001886168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21182,7 +21166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127953704"/>
+        <c:axId val="-2001886168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -21222,7 +21206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128265576"/>
+        <c:crossAx val="-2002077944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -21652,11 +21636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127582728"/>
-        <c:axId val="-2127589288"/>
+        <c:axId val="-2002421720"/>
+        <c:axId val="-2001925192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127582728"/>
+        <c:axId val="-2002421720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21694,7 +21678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127589288"/>
+        <c:crossAx val="-2001925192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21702,7 +21686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127589288"/>
+        <c:axId val="-2001925192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -21742,7 +21726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127582728"/>
+        <c:crossAx val="-2002421720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -42398,7 +42382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P90" sqref="P90:R90"/>
     </sheetView>
   </sheetViews>
@@ -58472,10 +58456,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I707"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="22300" activePane="topRight"/>
-      <selection activeCell="B532" sqref="B532:I618"/>
-      <selection pane="topRight" activeCell="B620" sqref="B620:I707"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="29460"/>
+      <selection activeCell="B620" sqref="B620:I707"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
